--- a/data_impute_project/error_metrics/terrestrial_herbivorous_mammals/min_mae_mape_results.xlsx
+++ b/data_impute_project/error_metrics/terrestrial_herbivorous_mammals/min_mae_mape_results.xlsx
@@ -491,18 +491,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AC</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0.3128741269841272</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.396254509178357</v>
       </c>
     </row>
     <row r="3">
@@ -526,18 +522,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AC</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0.3359596825396826</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.513667247183094</v>
       </c>
     </row>
     <row r="4">
@@ -564,15 +556,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F4" t="n">
+        <v>0.376227397112691</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.690855521032757</v>
       </c>
     </row>
     <row r="5">
@@ -596,18 +584,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ACDE</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3589610784735521</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.613866552624901</v>
       </c>
     </row>
     <row r="6">
@@ -631,18 +615,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCDE</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0.3724756428970331</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.687579077075649</v>
       </c>
     </row>
     <row r="7">
@@ -666,18 +646,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCDE</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.4207682650256251</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.894920979918595</v>
       </c>
     </row>
     <row r="8">
@@ -701,18 +677,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ACD</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.3878157335228882</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.740261515264412</v>
       </c>
     </row>
     <row r="9">
@@ -736,18 +708,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.371225255974398</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.67352255720422</v>
       </c>
     </row>
     <row r="10">
@@ -771,18 +739,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABDE</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.4379384924105208</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.96876201049101</v>
       </c>
     </row>
     <row r="11">
@@ -806,18 +770,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ACD</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0.3544139682539681</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.588056100651286</v>
       </c>
     </row>
     <row r="12">
@@ -841,18 +801,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AC</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.3557049206349201</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.604206145491801</v>
       </c>
     </row>
     <row r="13">
@@ -876,18 +832,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.4280567851756104</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.922280907140263</v>
       </c>
     </row>
     <row r="14">
@@ -911,18 +863,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ACDE</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.3656393015873019</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.636473909009415</v>
       </c>
     </row>
     <row r="15">
@@ -946,18 +894,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ACDE</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0.35353942857143</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.597423053869145</v>
       </c>
     </row>
     <row r="16">
@@ -981,18 +925,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABD</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.4391259340659335</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.974455052025622</v>
       </c>
     </row>
     <row r="17">
@@ -1016,18 +956,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1745885714285714</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.872077587536265</v>
       </c>
     </row>
     <row r="18">
@@ -1051,18 +987,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABDE</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.2839965079365077</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5.053017721977901</v>
       </c>
     </row>
     <row r="19">
@@ -1086,18 +1018,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0.2990873303167421</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5.425711246010064</v>
       </c>
     </row>
     <row r="20">
@@ -1121,18 +1049,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1209339858124199</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.455962457930052</v>
       </c>
     </row>
     <row r="21">
@@ -1156,18 +1080,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0.2873885467475077</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4.338566021213813</v>
       </c>
     </row>
     <row r="22">
@@ -1191,18 +1111,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABDE</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0.2836573079978177</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4.626055556293156</v>
       </c>
     </row>
     <row r="23">
@@ -1226,18 +1142,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCE</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0.1899141199476295</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4.261984030437974</v>
       </c>
     </row>
     <row r="24">
@@ -1261,18 +1173,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABE</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0.3077083171957672</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5.502775768739157</v>
       </c>
     </row>
     <row r="25">
@@ -1296,18 +1204,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0.297399352100106</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5.337097099273304</v>
       </c>
     </row>
     <row r="26">
@@ -1331,18 +1235,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABDE</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0.2036319999999999</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4.517916687240488</v>
       </c>
     </row>
     <row r="27">
@@ -1366,18 +1266,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCE</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.2804070158730155</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4.914965662068648</v>
       </c>
     </row>
     <row r="28">
@@ -1401,18 +1297,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABDE</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.3322260191769017</v>
+      </c>
+      <c r="G28" t="n">
+        <v>6.109054825974343</v>
       </c>
     </row>
     <row r="29">
@@ -1436,18 +1328,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCE</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.1811959999999997</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.974468545711873</v>
       </c>
     </row>
     <row r="30">
@@ -1471,18 +1359,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCE</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.2500351111111109</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4.37280440566948</v>
       </c>
     </row>
     <row r="31">
@@ -1506,18 +1390,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABDE</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.3612295011850895</v>
+      </c>
+      <c r="G31" t="n">
+        <v>6.655680940145743</v>
       </c>
     </row>
     <row r="32">
@@ -1541,18 +1421,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.1069555555555555</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.703992221293565</v>
       </c>
     </row>
     <row r="33">
@@ -1576,18 +1452,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCE</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.1167714285714285</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.7874857654699123</v>
       </c>
     </row>
     <row r="34">
@@ -1611,18 +1483,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCE</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.33432384184443</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.595451180342176</v>
       </c>
     </row>
     <row r="35">
@@ -1646,18 +1514,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCDE</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.1250393599322055</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.8309007024788825</v>
       </c>
     </row>
     <row r="36">
@@ -1681,18 +1545,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCDE</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.1478953900847047</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.004788224218168</v>
       </c>
     </row>
     <row r="37">
@@ -1716,18 +1576,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCE</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.3418617806895406</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.569586095616933</v>
       </c>
     </row>
     <row r="38">
@@ -1751,18 +1607,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCDE</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.1233616666666666</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.8150023112143302</v>
       </c>
     </row>
     <row r="39">
@@ -1786,18 +1638,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCDE</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.165008035714286</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.136535703157793</v>
       </c>
     </row>
     <row r="40">
@@ -1821,18 +1669,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.4081933030596862</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3.167869384717859</v>
       </c>
     </row>
     <row r="41">
@@ -1856,18 +1700,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCDE</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.1122822222222224</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.7535795833998506</v>
       </c>
     </row>
     <row r="42">
@@ -1891,18 +1731,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.1343685714285719</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.947163705142309</v>
       </c>
     </row>
     <row r="43">
@@ -1926,18 +1762,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCE</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.3111287416505068</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.414483300035836</v>
       </c>
     </row>
     <row r="44">
@@ -1961,18 +1793,14 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.1003222222222224</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.6490956829977275</v>
       </c>
     </row>
     <row r="45">
@@ -1996,18 +1824,14 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCE</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.1274557142857142</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.8774313524272767</v>
       </c>
     </row>
     <row r="46">
@@ -2031,18 +1855,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.2967255537599664</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2.320503837850353</v>
       </c>
     </row>
     <row r="47">
@@ -2066,18 +1886,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.04276</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.4809898762654667</v>
       </c>
     </row>
     <row r="48">
@@ -2101,18 +1917,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.06352444444444449</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.7493239068451437</v>
       </c>
     </row>
     <row r="49">
@@ -2136,18 +1948,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.1740506571859514</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2.299527477430289</v>
       </c>
     </row>
     <row r="50">
@@ -2171,18 +1979,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0517513100302366</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.5821294716562049</v>
       </c>
     </row>
     <row r="51">
@@ -2206,18 +2010,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABDE</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.06453858587611939</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.7046331311286314</v>
       </c>
     </row>
     <row r="52">
@@ -2241,18 +2041,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.1794359647671041</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2.379033348900266</v>
       </c>
     </row>
     <row r="53">
@@ -2276,18 +2072,14 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0119760000000005</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.1347131608548988</v>
       </c>
     </row>
     <row r="54">
@@ -2311,18 +2103,14 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>BCDE</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0431080714285713</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.5039291049652861</v>
       </c>
     </row>
     <row r="55">
@@ -2346,18 +2134,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCDE</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0.1510344291190836</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.012856326287237</v>
       </c>
     </row>
     <row r="56">
@@ -2381,18 +2165,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0.0238239999999998</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.2679865016872879</v>
       </c>
     </row>
     <row r="57">
@@ -2416,18 +2196,14 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ACDE</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0577871428571429</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.6528518595018795</v>
       </c>
     </row>
     <row r="58">
@@ -2451,18 +2227,14 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0.1460725037707398</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.950567914277515</v>
       </c>
     </row>
     <row r="59">
@@ -2486,18 +2258,14 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0320759999999996</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.3608098987626505</v>
       </c>
     </row>
     <row r="60">
@@ -2521,18 +2289,14 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ACDE</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>0.0534857142857145</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.602114906472816</v>
       </c>
     </row>
     <row r="61">
@@ -2556,18 +2320,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>0.111698599439776</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.499304144483578</v>
       </c>
     </row>
     <row r="62">
@@ -2591,18 +2351,14 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ACDE</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>0.00024</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.0014388489208633</v>
       </c>
     </row>
     <row r="63">
@@ -2626,18 +2382,14 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>BDE</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>0.0223714285714285</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.1365538104962959</v>
       </c>
     </row>
     <row r="64">
@@ -2661,18 +2413,14 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ACE</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>0.0726758457229045</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.4305782101544178</v>
       </c>
     </row>
     <row r="65">
@@ -2696,18 +2444,14 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCE</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>0.0020942007374999</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0125551602967623</v>
       </c>
     </row>
     <row r="66">
@@ -2731,18 +2475,14 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>CDE</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>0.0285129075108798</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.1733098272341119</v>
       </c>
     </row>
     <row r="67">
@@ -2766,18 +2506,14 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AE</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0839342338768163</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.4704330838016511</v>
       </c>
     </row>
     <row r="68">
@@ -2801,18 +2537,14 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>BCDE</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0044292000000007</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0265539568345366</v>
       </c>
     </row>
     <row r="69">
@@ -2836,18 +2568,14 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ADE</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0235098979591838</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.1459584111587985</v>
       </c>
     </row>
     <row r="70">
@@ -2871,18 +2599,14 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0.0986998306758604</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.5493344094165075</v>
       </c>
     </row>
     <row r="71">
@@ -2906,18 +2630,14 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>BCDE</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0019120000000003</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.0114628297362132</v>
       </c>
     </row>
     <row r="72">
@@ -2941,18 +2661,14 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ACE</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>0.0266971428571429</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.1620143118357623</v>
       </c>
     </row>
     <row r="73">
@@ -2976,18 +2692,14 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>0.0878875425554837</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.4962999355479741</v>
       </c>
     </row>
     <row r="74">
@@ -3011,18 +2723,14 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>BCDE</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>0.0055879999999996</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0335011990407651</v>
       </c>
     </row>
     <row r="75">
@@ -3046,18 +2754,14 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABE</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>0.0271528571428574</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.1638714482725582</v>
       </c>
     </row>
     <row r="76">
@@ -3081,18 +2785,14 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AE</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>0.0889871902607197</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.5089433748873301</v>
       </c>
     </row>
     <row r="77">
@@ -3116,18 +2816,14 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCDF</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>0.7167333333333336</v>
+      </c>
+      <c r="G77" t="n">
+        <v>3.324382801019629</v>
       </c>
     </row>
     <row r="78">
@@ -3151,18 +2847,14 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ADF</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>0.7918000000000003</v>
+      </c>
+      <c r="G78" t="n">
+        <v>3.549341319893281</v>
       </c>
     </row>
     <row r="79">
@@ -3186,18 +2878,14 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>0.8437066666666668</v>
+      </c>
+      <c r="G79" t="n">
+        <v>3.797838868778634</v>
       </c>
     </row>
     <row r="80">
@@ -3221,18 +2909,14 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>0.5133307061042055</v>
+      </c>
+      <c r="G80" t="n">
+        <v>2.348158204756171</v>
       </c>
     </row>
     <row r="81">
@@ -3256,18 +2940,14 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>0.6812157321053552</v>
+      </c>
+      <c r="G81" t="n">
+        <v>3.005738390790115</v>
       </c>
     </row>
     <row r="82">
@@ -3291,18 +2971,14 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>0.7751591209584792</v>
+      </c>
+      <c r="G82" t="n">
+        <v>3.463503640491773</v>
       </c>
     </row>
     <row r="83">
@@ -3326,18 +3002,14 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AF</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>0.3379250000000185</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1.589930371615224</v>
       </c>
     </row>
     <row r="84">
@@ -3361,18 +3033,14 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ADF</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>0.4479866666666678</v>
+      </c>
+      <c r="G84" t="n">
+        <v>2.00281487381979</v>
       </c>
     </row>
     <row r="85">
@@ -3396,18 +3064,14 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>0.6615633333333362</v>
+      </c>
+      <c r="G85" t="n">
+        <v>2.984410606390224</v>
       </c>
     </row>
     <row r="86">
@@ -3431,18 +3095,14 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ADF</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>0.3141400000000023</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1.490799878326507</v>
       </c>
     </row>
     <row r="87">
@@ -3466,18 +3126,14 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>0.4645833333333316</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2.090464353436169</v>
       </c>
     </row>
     <row r="88">
@@ -3501,18 +3157,14 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ADF</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>0.6562426666666691</v>
+      </c>
+      <c r="G88" t="n">
+        <v>2.956019151707147</v>
       </c>
     </row>
     <row r="89">
@@ -3536,18 +3188,14 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABD</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>0.4315000000000045</v>
+      </c>
+      <c r="G89" t="n">
+        <v>2.038339293721711</v>
       </c>
     </row>
     <row r="90">
@@ -3571,18 +3219,14 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AF</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>0.5239783333333274</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2.347873499657605</v>
       </c>
     </row>
     <row r="91">
@@ -3606,18 +3250,14 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>0.651628000000001</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2.940962947180471</v>
       </c>
     </row>
     <row r="92">
@@ -3641,18 +3281,14 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3676,18 +3312,14 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCDF</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>0.0355</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.6221671753126072</v>
       </c>
     </row>
     <row r="94">
@@ -3711,18 +3343,14 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>0.24164</v>
+      </c>
+      <c r="G94" t="n">
+        <v>3.67059988388682</v>
       </c>
     </row>
     <row r="95">
@@ -3746,18 +3374,14 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3781,18 +3405,14 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCDF</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>0.0899663282113579</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1.55807520104814</v>
       </c>
     </row>
     <row r="97">
@@ -3816,18 +3436,14 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>0.2310699378083167</v>
+      </c>
+      <c r="G97" t="n">
+        <v>3.380217752645785</v>
       </c>
     </row>
     <row r="98">
@@ -3851,18 +3467,14 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3886,18 +3498,14 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>0.008929999999998601</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.1541971880261283</v>
       </c>
     </row>
     <row r="100">
@@ -3921,18 +3529,14 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>0.2054533333333333</v>
+      </c>
+      <c r="G100" t="n">
+        <v>3.269350729993085</v>
       </c>
     </row>
     <row r="101">
@@ -3956,18 +3560,14 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -3991,18 +3591,14 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>0.01268</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.2213743748652899</v>
       </c>
     </row>
     <row r="103">
@@ -4026,18 +3622,14 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>0.1516413333333328</v>
+      </c>
+      <c r="G103" t="n">
+        <v>2.454008133207574</v>
       </c>
     </row>
     <row r="104">
@@ -4061,18 +3653,14 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -4096,18 +3684,14 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCF</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>0.0343300000000001</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.6135466418434973</v>
       </c>
     </row>
     <row r="106">
@@ -4131,18 +3715,14 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>0.1589906666666671</v>
+      </c>
+      <c r="G106" t="n">
+        <v>2.577110720858879</v>
       </c>
     </row>
     <row r="107">
@@ -4166,18 +3746,14 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AC</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -4201,18 +3777,14 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCDF</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>0.1085499999999999</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1.019248826291079</v>
       </c>
     </row>
     <row r="109">
@@ -4236,18 +3808,14 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCF</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>0.08095999999999989</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.7601877934272296</v>
       </c>
     </row>
     <row r="110">
@@ -4271,18 +3839,14 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AC</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -4306,18 +3870,14 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCDF</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>0.0837332747865084</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.7862279322676848</v>
       </c>
     </row>
     <row r="112">
@@ -4341,18 +3901,14 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCDF</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>0.0842582981413335</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.7911577290266064</v>
       </c>
     </row>
     <row r="113">
@@ -4376,18 +3932,14 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AC</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -4411,18 +3963,14 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>0.0491225000000004</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.4612441314554032</v>
       </c>
     </row>
     <row r="115">
@@ -4446,18 +3994,14 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>0.0405019999999999</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.3803004694835677</v>
       </c>
     </row>
     <row r="116">
@@ -4481,18 +4025,14 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AC</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -4516,18 +4056,14 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>0.0394049999999994</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.369999999999995</v>
       </c>
     </row>
     <row r="118">
@@ -4551,18 +4087,14 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>0.0111479999999996</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.1046760563380243</v>
       </c>
     </row>
     <row r="119">
@@ -4586,18 +4118,14 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AC</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -4621,18 +4149,14 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>0.0594299999999995</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.55802816901408</v>
       </c>
     </row>
     <row r="121">
@@ -4656,18 +4180,14 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>0.0286079999999996</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.2686197183098556</v>
       </c>
     </row>
     <row r="122">
@@ -4691,18 +4211,14 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -4726,18 +4242,14 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABD</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>0.1348</v>
+      </c>
+      <c r="G123" t="n">
+        <v>2.622568093385214</v>
       </c>
     </row>
     <row r="124">
@@ -4761,18 +4273,14 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ACD</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>0.10492</v>
+      </c>
+      <c r="G124" t="n">
+        <v>2.041245136186772</v>
       </c>
     </row>
     <row r="125">
@@ -4796,18 +4304,14 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -4831,18 +4335,14 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>0.121262169467224</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1.403194539281276</v>
       </c>
     </row>
     <row r="127">
@@ -4866,18 +4366,14 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ACDF</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>0.1042179559736062</v>
+      </c>
+      <c r="G127" t="n">
+        <v>2.027586692093508</v>
       </c>
     </row>
     <row r="128">
@@ -4901,18 +4397,14 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -4936,18 +4428,14 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABDF</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>0.1193550000000002</v>
+      </c>
+      <c r="G129" t="n">
+        <v>2.322081712062262</v>
       </c>
     </row>
     <row r="130">
@@ -4971,18 +4459,14 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ACDF</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>0.1083799999999996</v>
+      </c>
+      <c r="G130" t="n">
+        <v>2.10856031128404</v>
       </c>
     </row>
     <row r="131">
@@ -5006,18 +4490,14 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -5041,18 +4521,14 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABDF</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>0.10882</v>
+      </c>
+      <c r="G132" t="n">
+        <v>2.117120622568094</v>
       </c>
     </row>
     <row r="133">
@@ -5076,18 +4552,14 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>BCDF</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>0.094764</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1.843657587548639</v>
       </c>
     </row>
     <row r="134">
@@ -5111,18 +4583,14 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -5146,18 +4614,14 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABDF</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>0.1242399999999999</v>
+      </c>
+      <c r="G135" t="n">
+        <v>2.417120622568094</v>
       </c>
     </row>
     <row r="136">
@@ -5181,18 +4645,14 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ACDF</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>0.116672</v>
+      </c>
+      <c r="G136" t="n">
+        <v>2.269883268482491</v>
       </c>
     </row>
     <row r="137">
@@ -5216,18 +4676,14 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AF</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -5251,18 +4707,14 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>CDF</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>0.0643</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.5270491803278694</v>
       </c>
     </row>
     <row r="139">
@@ -5286,18 +4738,14 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>BDF</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>0.0474</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.3885245901639346</v>
       </c>
     </row>
     <row r="140">
@@ -5321,18 +4769,14 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AF</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -5356,18 +4800,14 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>BDF</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>0.0851728494232525</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.6981381100266604</v>
       </c>
     </row>
     <row r="142">
@@ -5391,18 +4831,14 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>BDF</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>0.06460112151642081</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.5295173894788594</v>
       </c>
     </row>
     <row r="143">
@@ -5426,18 +4862,14 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AF</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -5461,18 +4893,14 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>BDF</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>0.049607500000001</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.4066188524590246</v>
       </c>
     </row>
     <row r="145">
@@ -5496,18 +4924,14 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>BDF</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>0.0387720000000008</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.3178032786885312</v>
       </c>
     </row>
     <row r="146">
@@ -5531,18 +4955,14 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AF</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -5566,18 +4986,14 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>BDF</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>0.0551549999999995</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.4520901639344224</v>
       </c>
     </row>
     <row r="148">
@@ -5601,18 +5017,14 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>BCF</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>0.032988</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.2703934426229508</v>
       </c>
     </row>
     <row r="149">
@@ -5636,18 +5048,14 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AF</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -5671,18 +5079,14 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>BDF</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>0.04698</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.385081967213115</v>
       </c>
     </row>
     <row r="151">
@@ -5706,18 +5110,14 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>BDF</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>0.025968</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.2128524590163936</v>
       </c>
     </row>
     <row r="152">
@@ -5741,18 +5141,14 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AC</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>0.2985953968253966</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1.332453872828025</v>
       </c>
     </row>
     <row r="153">
@@ -5776,18 +5172,14 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>0.3007955555555555</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1.350484907338554</v>
       </c>
     </row>
     <row r="154">
@@ -5814,15 +5206,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F154" t="n">
+        <v>0.373043180349063</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1.672091178108411</v>
       </c>
     </row>
     <row r="155">
@@ -5846,18 +5234,14 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>0.3274654574934515</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1.462317806955805</v>
       </c>
     </row>
     <row r="156">
@@ -5881,18 +5265,14 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>0.3061608616911799</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1.374404863705523</v>
       </c>
     </row>
     <row r="157">
@@ -5916,18 +5296,14 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>0.3812502571392104</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1.706815447491713</v>
       </c>
     </row>
     <row r="158">
@@ -5951,18 +5327,14 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>0.3745199343433872</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1.674453472181702</v>
       </c>
     </row>
     <row r="159">
@@ -5986,18 +5358,14 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>0.332146480015529</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1.49367159779522</v>
       </c>
     </row>
     <row r="160">
@@ -6021,18 +5389,14 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>0.4263523448314986</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1.915743329590577</v>
       </c>
     </row>
     <row r="161">
@@ -6056,18 +5420,14 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>0.3573275396825401</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1.596490914975271</v>
       </c>
     </row>
     <row r="162">
@@ -6091,18 +5451,14 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>0.3224961269841279</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1.453822286793087</v>
       </c>
     </row>
     <row r="163">
@@ -6126,18 +5482,14 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>0.4170775899590609</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1.87524603839398</v>
       </c>
     </row>
     <row r="164">
@@ -6161,18 +5513,14 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>0.3871881111111136</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1.732497337184411</v>
       </c>
     </row>
     <row r="165">
@@ -6196,18 +5544,14 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>0.3644392380952381</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1.641597471377099</v>
       </c>
     </row>
     <row r="166">
@@ -6231,18 +5575,14 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>0.4129802025425567</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1.856327755946677</v>
       </c>
     </row>
     <row r="167">
@@ -6266,18 +5606,14 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>0.0511887301587302</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1.053286732304614</v>
       </c>
     </row>
     <row r="168">
@@ -6301,18 +5637,14 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>0.139108253968254</v>
+      </c>
+      <c r="G168" t="n">
+        <v>3.145968301914575</v>
       </c>
     </row>
     <row r="169">
@@ -6336,18 +5668,14 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>0.2335541478129713</v>
+      </c>
+      <c r="G169" t="n">
+        <v>4.810293425308279</v>
       </c>
     </row>
     <row r="170">
@@ -6371,18 +5699,14 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABD</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>0.1067412972345643</v>
+      </c>
+      <c r="G170" t="n">
+        <v>2.098569523506905</v>
       </c>
     </row>
     <row r="171">
@@ -6406,18 +5730,14 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABD</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>0.1518097497638172</v>
+      </c>
+      <c r="G171" t="n">
+        <v>3.001588328822565</v>
       </c>
     </row>
     <row r="172">
@@ -6441,18 +5761,14 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABD</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>0.2049939286624008</v>
+      </c>
+      <c r="G172" t="n">
+        <v>3.759185378239211</v>
       </c>
     </row>
     <row r="173">
@@ -6476,18 +5792,14 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABD</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>0.1329028068665473</v>
+      </c>
+      <c r="G173" t="n">
+        <v>2.634318641892899</v>
       </c>
     </row>
     <row r="174">
@@ -6511,18 +5823,14 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>0.1702679667989418</v>
+      </c>
+      <c r="G174" t="n">
+        <v>3.619337195851281</v>
       </c>
     </row>
     <row r="175">
@@ -6546,18 +5854,14 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>0.1810831777021681</v>
+      </c>
+      <c r="G175" t="n">
+        <v>3.661979040257869</v>
       </c>
     </row>
     <row r="176">
@@ -6581,18 +5885,14 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>0.0568810158730162</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1.052694057004079</v>
       </c>
     </row>
     <row r="177">
@@ -6616,18 +5916,14 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>0.1189089841269843</v>
+      </c>
+      <c r="G177" t="n">
+        <v>2.479884438914254</v>
       </c>
     </row>
     <row r="178">
@@ -6651,18 +5947,14 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>0.1702477655677653</v>
+      </c>
+      <c r="G178" t="n">
+        <v>3.166029462391633</v>
       </c>
     </row>
     <row r="179">
@@ -6686,18 +5978,14 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABD</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>0.07772004761904761</v>
+      </c>
+      <c r="G179" t="n">
+        <v>1.464982599554182</v>
       </c>
     </row>
     <row r="180">
@@ -6721,18 +6009,14 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABD</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>0.1026456190476195</v>
+      </c>
+      <c r="G180" t="n">
+        <v>2.179353935590836</v>
       </c>
     </row>
     <row r="181">
@@ -6756,18 +6040,14 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>0.1753852973497093</v>
+      </c>
+      <c r="G181" t="n">
+        <v>3.282407184174564</v>
       </c>
     </row>
     <row r="182">
@@ -6791,18 +6071,14 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>0.2408712698412698</v>
+      </c>
+      <c r="G182" t="n">
+        <v>2.187318578851608</v>
       </c>
     </row>
     <row r="183">
@@ -6826,18 +6102,14 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>0.2431615873015873</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1.836138308198454</v>
       </c>
     </row>
     <row r="184">
@@ -6861,18 +6133,14 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>0.2949950226244345</v>
+      </c>
+      <c r="G184" t="n">
+        <v>2.27294210515876</v>
       </c>
     </row>
     <row r="185">
@@ -6896,18 +6164,14 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>0.2220490250531114</v>
+      </c>
+      <c r="G185" t="n">
+        <v>2.003867144031937</v>
       </c>
     </row>
     <row r="186">
@@ -6931,18 +6195,14 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>0.2332312462620237</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1.677561297958733</v>
       </c>
     </row>
     <row r="187">
@@ -6966,18 +6226,14 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>0.3304357130973224</v>
+      </c>
+      <c r="G187" t="n">
+        <v>2.497837295543073</v>
       </c>
     </row>
     <row r="188">
@@ -7001,18 +6257,14 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>BCD</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>0.2544907307256231</v>
+      </c>
+      <c r="G188" t="n">
+        <v>2.3500485915872</v>
       </c>
     </row>
     <row r="189">
@@ -7036,18 +6288,14 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>0.2691258291005292</v>
+      </c>
+      <c r="G189" t="n">
+        <v>2.025529666548053</v>
       </c>
     </row>
     <row r="190">
@@ -7071,18 +6319,14 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>0.4087490083071693</v>
+      </c>
+      <c r="G190" t="n">
+        <v>3.145673158439861</v>
       </c>
     </row>
     <row r="191">
@@ -7106,18 +6350,14 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ACD</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>0.1870703809523821</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1.602406993062644</v>
       </c>
     </row>
     <row r="192">
@@ -7141,18 +6381,14 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>0.3311032063492057</v>
+      </c>
+      <c r="G192" t="n">
+        <v>2.596366166967452</v>
       </c>
     </row>
     <row r="193">
@@ -7176,18 +6412,14 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>0.3736845065718588</v>
+      </c>
+      <c r="G193" t="n">
+        <v>3.010688460539306</v>
       </c>
     </row>
     <row r="194">
@@ -7211,18 +6443,14 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ACD</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>0.1915826349206351</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1.60822852408724</v>
       </c>
     </row>
     <row r="195">
@@ -7246,18 +6474,14 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>0.3066046666666663</v>
+      </c>
+      <c r="G195" t="n">
+        <v>2.316488060229628</v>
       </c>
     </row>
     <row r="196">
@@ -7281,18 +6505,14 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>0.2891981124757591</v>
+      </c>
+      <c r="G196" t="n">
+        <v>2.203978005303202</v>
       </c>
     </row>
     <row r="197">
@@ -7316,18 +6536,14 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>0.0287428571428571</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.414759843331272</v>
       </c>
     </row>
     <row r="198">
@@ -7351,18 +6567,14 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>0.06196</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.8114270968285566</v>
       </c>
     </row>
     <row r="199">
@@ -7386,18 +6598,14 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>0.1363526287438053</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1.855685082182828</v>
       </c>
     </row>
     <row r="200">
@@ -7421,18 +6629,14 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>0.0288756895048003</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.416676616230885</v>
       </c>
     </row>
     <row r="201">
@@ -7456,18 +6660,14 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>0.05423863385925</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.7059826514852036</v>
       </c>
     </row>
     <row r="202">
@@ -7491,18 +6691,14 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>0.1106705654538425</v>
+      </c>
+      <c r="G202" t="n">
+        <v>1.502117202520774</v>
       </c>
     </row>
     <row r="203">
@@ -7526,18 +6722,14 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>0.0389876054421767</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.5625917091223203</v>
       </c>
     </row>
     <row r="204">
@@ -7561,18 +6753,14 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>0.06817843095238089</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.8850027998591606</v>
       </c>
     </row>
     <row r="205">
@@ -7596,18 +6784,14 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>0.16180032331394</v>
+      </c>
+      <c r="G205" t="n">
+        <v>2.198850709542016</v>
       </c>
     </row>
     <row r="206">
@@ -7631,18 +6815,14 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>0.0286314285714286</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.4131519274376433</v>
       </c>
     </row>
     <row r="207">
@@ -7666,18 +6846,14 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>0.0590466666666668</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.7595443485954454</v>
       </c>
     </row>
     <row r="208">
@@ -7701,18 +6877,14 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>0.1647483419521659</v>
+      </c>
+      <c r="G208" t="n">
+        <v>2.211403523928848</v>
       </c>
     </row>
     <row r="209">
@@ -7736,18 +6908,14 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>0.0294999999999999</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.4256854256854246</v>
       </c>
     </row>
     <row r="210">
@@ -7771,18 +6939,14 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>0.0557080000000001</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.7154812989119579</v>
       </c>
     </row>
     <row r="211">
@@ -7806,18 +6970,14 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>0.1482335251023487</v>
+      </c>
+      <c r="G211" t="n">
+        <v>2.063233562529583</v>
       </c>
     </row>
   </sheetData>
